--- a/column_descriptions.xlsx
+++ b/column_descriptions.xlsx
@@ -7,9 +7,7 @@
   <sheets>
     <sheet name="書き出しの概要" sheetId="1" r:id="rId4"/>
     <sheet name="race_result_df" sheetId="2" r:id="rId5"/>
-    <sheet name="beforeinfo_df" sheetId="3" r:id="rId6"/>
-    <sheet name="racer_df" sheetId="4" r:id="rId7"/>
-    <sheet name="racelist_df" sheetId="5" r:id="rId8"/>
+    <sheet name="racer_df" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -290,15 +288,12 @@
     <t>i号艇スタートタイム</t>
   </si>
   <si>
-    <t>beforeinfo_df</t>
-  </si>
-  <si>
-    <t>公式サイトクロール</t>
-  </si>
-  <si>
     <t>exhibitionTime_1</t>
   </si>
   <si>
+    <t>beforeinfo</t>
+  </si>
+  <si>
     <t>exhibition_ST_1</t>
   </si>
   <si>
@@ -308,13 +303,13 @@
     <t>exhibition_cource_1</t>
   </si>
   <si>
-    <t>flying_1</t>
+    <t>exhibition_flying_flag_1</t>
   </si>
   <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>late_1</t>
+    <t>exhibition_late_flag_1</t>
   </si>
   <si>
     <t>racer_1</t>
@@ -341,6 +336,63 @@
     <t>体重</t>
   </si>
   <si>
+    <t>ave_start_time_1</t>
+  </si>
+  <si>
+    <t>racelist</t>
+  </si>
+  <si>
+    <t>boatNo_1</t>
+  </si>
+  <si>
+    <t>boat_place2Ratio_1</t>
+  </si>
+  <si>
+    <t>boat_place3Ratio_1</t>
+  </si>
+  <si>
+    <t>motorNo_1</t>
+  </si>
+  <si>
+    <t>motor_place2Ratio_1</t>
+  </si>
+  <si>
+    <t>motor_place3Ratio_1</t>
+  </si>
+  <si>
+    <t>num_false_start_1</t>
+  </si>
+  <si>
+    <t>num_late_start_1</t>
+  </si>
+  <si>
+    <t>place2Ratio_local_1</t>
+  </si>
+  <si>
+    <t>place2Ratio_national_1</t>
+  </si>
+  <si>
+    <t>place3Ratio_local_1</t>
+  </si>
+  <si>
+    <t>place3Ratio_national_1</t>
+  </si>
+  <si>
+    <t>racer_id_1</t>
+  </si>
+  <si>
+    <t>win_rate_local_1</t>
+  </si>
+  <si>
+    <t>win_rate_national_1</t>
+  </si>
+  <si>
+    <t>CS_frame_i_j</t>
+  </si>
+  <si>
+    <t>CS_rank_i_j</t>
+  </si>
+  <si>
     <t>racer_df</t>
   </si>
   <si>
@@ -450,60 +502,6 @@
   </si>
   <si>
     <t xml:space="preserve">                  }</t>
-  </si>
-  <si>
-    <t>racelist_df</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>ave_start_time_1</t>
-  </si>
-  <si>
-    <t>boatNo_1</t>
-  </si>
-  <si>
-    <t>boat_place2Ratio_1</t>
-  </si>
-  <si>
-    <t>boat_place3Ratio_1</t>
-  </si>
-  <si>
-    <t>motorNo_1</t>
-  </si>
-  <si>
-    <t>motor_place2Ratio_1</t>
-  </si>
-  <si>
-    <t>motor_place3Ratio_1</t>
-  </si>
-  <si>
-    <t>num_false_start_1</t>
-  </si>
-  <si>
-    <t>num_late_start_1</t>
-  </si>
-  <si>
-    <t>place2Ratio_local_1</t>
-  </si>
-  <si>
-    <t>place2Ratio_national_1</t>
-  </si>
-  <si>
-    <t>place3Ratio_local_1</t>
-  </si>
-  <si>
-    <t>place3Ratio_national_1</t>
-  </si>
-  <si>
-    <t>racer_id_1</t>
-  </si>
-  <si>
-    <t>win_rate_local_1</t>
-  </si>
-  <si>
-    <t>win_rate_national_1</t>
   </si>
 </sst>
 </file>
@@ -712,7 +710,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -740,6 +738,9 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -758,9 +759,6 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -768,30 +766,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1925,7 +1899,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1936,39 +1910,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="5">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1977,16 +1919,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'race_result_df'!R1C1" tooltip="" display="race_result_df"/>
-    <hyperlink ref="D12" location="'beforeinfo_df'!R2C1" tooltip="" display="beforeinfo_df"/>
-    <hyperlink ref="D14" location="'racer_df'!R2C1" tooltip="" display="racer_df"/>
-    <hyperlink ref="D16" location="'racelist_df'!R2C1" tooltip="" display="racelist_df"/>
+    <hyperlink ref="D12" location="'racer_df'!R2C1" tooltip="" display="racer_df"/>
   </hyperlinks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2644,247 +2584,389 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="8"/>
+      <c r="A39" t="s" s="7">
+        <v>91</v>
+      </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="8"/>
+      <c r="A40" t="s" s="7">
+        <v>93</v>
+      </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="D40" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="F40" t="s" s="7">
+        <v>92</v>
+      </c>
       <c r="G40" s="8"/>
     </row>
     <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="8"/>
+      <c r="A41" t="s" s="7">
+        <v>95</v>
+      </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="F41" t="s" s="7">
+        <v>92</v>
+      </c>
       <c r="G41" s="8"/>
     </row>
     <row r="42" ht="16" customHeight="1">
-      <c r="A42" s="8"/>
+      <c r="A42" t="s" s="7">
+        <v>96</v>
+      </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="C42" t="s" s="7">
+        <v>97</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="F42" t="s" s="7">
+        <v>92</v>
+      </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="8"/>
+      <c r="A43" t="s" s="7">
+        <v>98</v>
+      </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C43" t="s" s="7">
+        <v>97</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="F43" t="s" s="7">
+        <v>92</v>
+      </c>
       <c r="G43" s="8"/>
     </row>
     <row r="44" ht="16" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s" s="7">
+        <v>101</v>
+      </c>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="E44" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>104</v>
+      </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="F45" t="s" s="7">
+        <v>92</v>
+      </c>
       <c r="G45" s="8"/>
     </row>
     <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>106</v>
+      </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="F46" t="s" s="7">
+        <v>92</v>
+      </c>
       <c r="G46" s="8"/>
     </row>
     <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="8"/>
+      <c r="A47" t="s" s="7">
+        <v>107</v>
+      </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="F47" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G47" s="8"/>
     </row>
     <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="8"/>
+      <c r="A48" t="s" s="7">
+        <v>109</v>
+      </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="F48" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
-      <c r="A49" s="8"/>
+      <c r="A49" t="s" s="7">
+        <v>110</v>
+      </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="F49" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G49" s="8"/>
     </row>
     <row r="50" ht="16" customHeight="1">
-      <c r="A50" s="8"/>
+      <c r="A50" t="s" s="7">
+        <v>111</v>
+      </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="F50" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G50" s="8"/>
     </row>
     <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="8"/>
+      <c r="A51" t="s" s="7">
+        <v>112</v>
+      </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="F51" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="G51" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="8"/>
+      <c r="A52" t="s" s="7">
+        <v>113</v>
+      </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="F52" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G52" s="8"/>
     </row>
     <row r="53" ht="16" customHeight="1">
-      <c r="A53" s="8"/>
+      <c r="A53" t="s" s="7">
+        <v>114</v>
+      </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="F53" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G53" s="8"/>
     </row>
     <row r="54" ht="16" customHeight="1">
-      <c r="A54" s="8"/>
+      <c r="A54" t="s" s="7">
+        <v>115</v>
+      </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="F54" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G54" s="8"/>
     </row>
     <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="8"/>
+      <c r="A55" t="s" s="7">
+        <v>116</v>
+      </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="F55" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G55" s="8"/>
     </row>
     <row r="56" ht="16" customHeight="1">
-      <c r="A56" s="8"/>
+      <c r="A56" t="s" s="7">
+        <v>117</v>
+      </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="F56" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G56" s="8"/>
     </row>
     <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="8"/>
+      <c r="A57" t="s" s="7">
+        <v>118</v>
+      </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="F57" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G57" s="8"/>
     </row>
     <row r="58" ht="16" customHeight="1">
-      <c r="A58" s="8"/>
+      <c r="A58" t="s" s="7">
+        <v>119</v>
+      </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="F58" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G58" s="8"/>
     </row>
     <row r="59" ht="16" customHeight="1">
-      <c r="A59" s="8"/>
+      <c r="A59" t="s" s="7">
+        <v>120</v>
+      </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="F59" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G59" s="8"/>
     </row>
     <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="8"/>
+      <c r="A60" t="s" s="7">
+        <v>99</v>
+      </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="F60" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="G60" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="8"/>
+      <c r="A61" t="s" s="7">
+        <v>121</v>
+      </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="F61" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="G61" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" ht="16" customHeight="1">
-      <c r="A62" s="8"/>
+      <c r="A62" t="s" s="7">
+        <v>122</v>
+      </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
+      <c r="F62" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G62" s="8"/>
     </row>
     <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="8"/>
+      <c r="A63" t="s" s="7">
+        <v>123</v>
+      </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="F63" t="s" s="7">
+        <v>108</v>
+      </c>
       <c r="G63" s="8"/>
     </row>
     <row r="64" ht="16" customHeight="1">
-      <c r="A64" s="8"/>
+      <c r="A64" t="s" s="7">
+        <v>124</v>
+      </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="F64" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="G64" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
-      <c r="A65" s="8"/>
+      <c r="A65" t="s" s="7">
+        <v>125</v>
+      </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="F65" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="G65" t="s" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="8"/>
@@ -2894,42 +2976,6 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-    </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2945,244 +2991,6 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="3" width="16.3516" style="9" customWidth="1"/>
-    <col min="4" max="4" width="26.0703" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.1719" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="9" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" ht="15.55" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="15.55" customHeight="1">
-      <c r="A3" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" t="s" s="15">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>17</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s" s="19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>19</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s" s="19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>93</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G6" t="s" s="19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>94</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" t="s" s="19">
-        <v>95</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="F7" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="16">
-        <v>96</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>97</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" t="s" s="19">
-        <v>98</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>99</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="19">
-        <v>98</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="16">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s" s="21">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s" s="19">
-        <v>102</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" t="s" s="19">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G11" t="s" s="19">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="16">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s" s="21">
-        <v>105</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="16">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s" s="21">
-        <v>107</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
@@ -3191,53 +2999,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="22" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="22" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="10" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="10">
+      <c r="A1" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" ht="15.55" customHeight="1">
-      <c r="A2" t="s" s="11">
+      <c r="A2" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E2" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="11">
+      <c r="F2" t="s" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.55" customHeight="1">
-      <c r="A3" t="s" s="12">
-        <v>109</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" t="s" s="13">
+        <v>127</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="16">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -3247,7 +3055,7 @@
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="16">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -3257,7 +3065,7 @@
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="16">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -3267,7 +3075,7 @@
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="16">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -3277,7 +3085,7 @@
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="16">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -3287,7 +3095,7 @@
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="16">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -3297,7 +3105,7 @@
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="16">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -3307,7 +3115,7 @@
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="16">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -3317,7 +3125,7 @@
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -3327,7 +3135,7 @@
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="16">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -3337,7 +3145,7 @@
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="16">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -3347,7 +3155,7 @@
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -3357,7 +3165,7 @@
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="16">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -3367,7 +3175,7 @@
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -3377,7 +3185,7 @@
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="16">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -3387,7 +3195,7 @@
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="16">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -3397,7 +3205,7 @@
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="16">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -3407,7 +3215,7 @@
     </row>
     <row r="21" ht="15.35" customHeight="1">
       <c r="A21" t="s" s="16">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -3417,7 +3225,7 @@
     </row>
     <row r="22" ht="15.35" customHeight="1">
       <c r="A22" t="s" s="16">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -3427,7 +3235,7 @@
     </row>
     <row r="23" ht="15.35" customHeight="1">
       <c r="A23" t="s" s="16">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -3437,7 +3245,7 @@
     </row>
     <row r="24" ht="15.35" customHeight="1">
       <c r="A24" t="s" s="16">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -3447,7 +3255,7 @@
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="16">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -3457,7 +3265,7 @@
     </row>
     <row r="26" ht="15.35" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -3467,7 +3275,7 @@
     </row>
     <row r="27" ht="15.35" customHeight="1">
       <c r="A27" t="s" s="16">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -3477,7 +3285,7 @@
     </row>
     <row r="28" ht="15.35" customHeight="1">
       <c r="A28" t="s" s="16">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -3487,7 +3295,7 @@
     </row>
     <row r="29" ht="15.35" customHeight="1">
       <c r="A29" t="s" s="16">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -3497,7 +3305,7 @@
     </row>
     <row r="30" ht="15.35" customHeight="1">
       <c r="A30" t="s" s="16">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -3507,7 +3315,7 @@
     </row>
     <row r="31" ht="15.35" customHeight="1">
       <c r="A31" t="s" s="16">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -3517,7 +3325,7 @@
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="16">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -3527,7 +3335,7 @@
     </row>
     <row r="33" ht="15.35" customHeight="1">
       <c r="A33" t="s" s="16">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -3537,7 +3345,7 @@
     </row>
     <row r="34" ht="15.35" customHeight="1">
       <c r="A34" t="s" s="16">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -3547,7 +3355,7 @@
     </row>
     <row r="35" ht="15.35" customHeight="1">
       <c r="A35" t="s" s="16">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
@@ -3557,7 +3365,7 @@
     </row>
     <row r="36" ht="15.35" customHeight="1">
       <c r="A36" t="s" s="16">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
@@ -3567,7 +3375,7 @@
     </row>
     <row r="37" ht="15.35" customHeight="1">
       <c r="A37" t="s" s="16">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
@@ -3577,7 +3385,7 @@
     </row>
     <row r="38" ht="15.35" customHeight="1">
       <c r="A38" t="s" s="16">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -3595,358 +3403,4 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="20" style="23" customWidth="1"/>
-    <col min="2" max="10" width="16.3516" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="10">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="24">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="24">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="24">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="24">
-        <v>12</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" ht="15.55" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" ht="15.55" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" t="s" s="15">
-        <v>146</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>19</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" t="s" s="19">
-        <v>16</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>147</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>148</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>150</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>151</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="16">
-        <v>152</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="16">
-        <v>153</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="16">
-        <v>154</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="16">
-        <v>155</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="16">
-        <v>156</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="16">
-        <v>157</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="16">
-        <v>158</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="16">
-        <v>159</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="16">
-        <v>100</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="16">
-        <v>160</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="16">
-        <v>161</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="16">
-        <v>162</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/column_descriptions.xlsx
+++ b/column_descriptions.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -33,6 +33,9 @@
     <t>表1</t>
   </si>
   <si>
+    <t>下記カラムのうち、Dropの記載がないものが、loader.make_merged_df()でロードされるカラム</t>
+  </si>
+  <si>
     <t>カラム名</t>
   </si>
   <si>
@@ -334,6 +337,18 @@
   </si>
   <si>
     <t>体重</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
+  </si>
+  <si>
+    <t>water_temperature</t>
+  </si>
+  <si>
+    <t>wave_height</t>
   </si>
   <si>
     <t>ave_start_time_1</t>
@@ -544,7 +559,7 @@
       <name val="游ゴシック"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,18 +580,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -586,16 +607,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,7 +668,7 @@
         <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +677,10 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -631,13 +689,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -652,7 +710,7 @@
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -664,7 +722,7 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
         <color indexed="14"/>
@@ -676,7 +734,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -710,7 +768,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -732,40 +790,46 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -788,9 +852,10 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -991,17 +1056,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1029,10 +1094,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1280,12 +1345,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1572,7 +1637,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1600,10 +1665,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1899,7 +1964,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1910,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1919,20 +1984,20 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" location="'race_result_df'!R1C1" tooltip="" display="race_result_df"/>
-    <hyperlink ref="D12" location="'racer_df'!R2C1" tooltip="" display="racer_df"/>
+    <hyperlink ref="D12" location="'racer_df'!R1C1" tooltip="" display="racer_df"/>
   </hyperlinks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.6172" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.6719" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.1719" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.17188" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.85156" style="6" customWidth="1"/>
@@ -1945,1037 +2010,1128 @@
       <c r="A1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s" s="7">
-        <v>12</v>
-      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="7">
-        <v>16</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>11</v>
+      </c>
       <c r="F3" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="7">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s" s="7">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" t="s" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" t="s" s="7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" t="s" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" t="s" s="7">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" t="s" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" t="s" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" t="s" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" t="s" s="7">
-        <v>74</v>
-      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G30" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" t="s" s="7">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" t="s" s="7">
-        <v>74</v>
-      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G31" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" t="s" s="7">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" t="s" s="7">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" t="s" s="7">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" s="8"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" t="s" s="7">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="8"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" t="s" s="7">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" s="8"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" t="s" s="7">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="8"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" t="s" s="7">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" t="s" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="B39" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>89</v>
+      </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="D39" t="s" s="7">
+        <v>75</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="G39" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="B40" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>91</v>
+      </c>
       <c r="C40" s="8"/>
       <c r="D40" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.01</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E40" s="8"/>
       <c r="F40" t="s" s="7">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G40" s="8"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" t="s" s="7">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="G41" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="G41" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" t="s" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.01</v>
+      </c>
       <c r="F42" t="s" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" t="s" s="7">
-        <v>97</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" t="s" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G43" s="8"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s" s="7">
-        <v>100</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B44" s="8"/>
       <c r="C44" t="s" s="7">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D44" s="8"/>
-      <c r="E44" t="s" s="7">
-        <v>102</v>
-      </c>
+      <c r="E44" s="8"/>
       <c r="F44" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="G44" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="B45" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" t="s" s="7">
+        <v>98</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" t="s" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G45" s="8"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" t="s" s="7">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="C46" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="C46" t="s" s="7">
+        <v>102</v>
+      </c>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="E46" t="s" s="7">
+        <v>103</v>
+      </c>
       <c r="F46" t="s" s="7">
-        <v>92</v>
-      </c>
-      <c r="G46" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="G46" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="B47" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>105</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" t="s" s="7">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G47" s="8"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="B48" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>107</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G48" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" t="s" s="7">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" t="s" s="7">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G49" s="8"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" t="s" s="7">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G50" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="G50" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" t="s" s="7">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" t="s" s="7">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" t="s" s="7">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G52" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" t="s" s="7">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G53" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="G53" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" t="s" s="7">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G54" s="8"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" t="s" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G55" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="G55" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" t="s" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G56" s="8"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" t="s" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G57" s="8"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" t="s" s="7">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G58" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="G58" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" t="s" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G59" s="8"/>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" t="s" s="7">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G60" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" t="s" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G61" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" t="s" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G62" s="8"/>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" t="s" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" t="s" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G63" s="8"/>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" t="s" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G64" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" t="s" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="G65" t="s" s="7">
-        <v>33</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" ht="16" customHeight="1">
-      <c r="A66" s="8"/>
+      <c r="A66" t="s" s="7">
+        <v>125</v>
+      </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="F66" t="s" s="7">
+        <v>113</v>
+      </c>
       <c r="G66" s="8"/>
+    </row>
+    <row r="67" ht="16" customHeight="1">
+      <c r="A67" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="G67" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1">
+      <c r="A68" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="G68" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1">
+      <c r="A69" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" ht="16" customHeight="1">
+      <c r="A70" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" ht="16" customHeight="1">
+      <c r="A71" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="G71" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="1">
+      <c r="A72" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="G72" t="s" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,11 +3147,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -3007,391 +3161,391 @@
       <c r="A1" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" ht="15.55" customHeight="1">
-      <c r="A2" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="12">
+      <c r="A2" t="s" s="14">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="B2" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="12">
+      <c r="C2" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="12">
+      <c r="D2" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="12">
-        <v>12</v>
+      <c r="E2" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="14">
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="15.55" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>127</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" t="s" s="15">
+        <v>132</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="16">
-        <v>128</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" t="s" s="18">
+        <v>133</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" t="s" s="18">
+        <v>134</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="16">
-        <v>130</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" t="s" s="18">
+        <v>135</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="16">
-        <v>131</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" t="s" s="18">
+        <v>136</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="16">
-        <v>132</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" t="s" s="18">
+        <v>137</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="16">
-        <v>133</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="A9" t="s" s="18">
+        <v>138</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="16">
-        <v>134</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="A10" t="s" s="18">
+        <v>139</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="16">
-        <v>135</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="A11" t="s" s="18">
+        <v>140</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="16">
-        <v>136</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="A12" t="s" s="18">
+        <v>141</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="16">
-        <v>137</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="A13" t="s" s="18">
+        <v>142</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="16">
-        <v>138</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="A14" t="s" s="18">
+        <v>143</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="16">
-        <v>139</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="A15" t="s" s="18">
+        <v>144</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="16">
-        <v>140</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="A16" t="s" s="18">
+        <v>145</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="16">
-        <v>141</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="A17" t="s" s="18">
+        <v>146</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="16">
-        <v>142</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="A18" t="s" s="18">
+        <v>147</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="16">
-        <v>143</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" t="s" s="18">
+        <v>148</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="16">
-        <v>144</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" t="s" s="18">
+        <v>149</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="16">
-        <v>145</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" t="s" s="18">
+        <v>150</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="16">
-        <v>146</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" t="s" s="18">
+        <v>151</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" t="s" s="16">
-        <v>147</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" t="s" s="18">
+        <v>152</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" t="s" s="16">
-        <v>148</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" t="s" s="18">
+        <v>153</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" t="s" s="16">
-        <v>149</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" t="s" s="18">
+        <v>154</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" t="s" s="16">
-        <v>150</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" t="s" s="18">
+        <v>155</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" ht="15.35" customHeight="1">
-      <c r="A27" t="s" s="16">
-        <v>151</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" t="s" s="18">
+        <v>156</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" ht="15.35" customHeight="1">
-      <c r="A28" t="s" s="16">
-        <v>152</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" t="s" s="18">
+        <v>157</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" ht="15.35" customHeight="1">
-      <c r="A29" t="s" s="16">
-        <v>153</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" t="s" s="18">
+        <v>158</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" ht="15.35" customHeight="1">
-      <c r="A30" t="s" s="16">
-        <v>154</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" t="s" s="18">
+        <v>159</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" ht="15.35" customHeight="1">
-      <c r="A31" t="s" s="16">
-        <v>155</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" t="s" s="18">
+        <v>160</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" ht="15.35" customHeight="1">
-      <c r="A32" t="s" s="16">
-        <v>156</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" t="s" s="18">
+        <v>161</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" t="s" s="16">
-        <v>157</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" t="s" s="18">
+        <v>162</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" ht="15.35" customHeight="1">
-      <c r="A34" t="s" s="16">
-        <v>158</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" t="s" s="18">
+        <v>163</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" ht="15.35" customHeight="1">
-      <c r="A35" t="s" s="16">
-        <v>159</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" t="s" s="18">
+        <v>164</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" ht="15.35" customHeight="1">
-      <c r="A36" t="s" s="16">
-        <v>160</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" t="s" s="18">
+        <v>165</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" ht="15.35" customHeight="1">
-      <c r="A37" t="s" s="16">
-        <v>161</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" t="s" s="18">
+        <v>166</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" ht="15.35" customHeight="1">
-      <c r="A38" t="s" s="16">
-        <v>162</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" t="s" s="18">
+        <v>167</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
